--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>810.6039418097992</v>
+        <v>1016.027237841848</v>
       </c>
       <c r="AB2" t="n">
-        <v>1109.104074506173</v>
+        <v>1390.173290773435</v>
       </c>
       <c r="AC2" t="n">
-        <v>1003.252738272648</v>
+        <v>1257.497103022486</v>
       </c>
       <c r="AD2" t="n">
-        <v>810603.9418097992</v>
+        <v>1016027.237841848</v>
       </c>
       <c r="AE2" t="n">
-        <v>1109104.074506173</v>
+        <v>1390173.290773435</v>
       </c>
       <c r="AF2" t="n">
         <v>3.890277471964566e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.34722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1003252.738272648</v>
+        <v>1257497.103022486</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>508.6170840409325</v>
+        <v>655.4107376773768</v>
       </c>
       <c r="AB3" t="n">
-        <v>695.9123329869154</v>
+        <v>896.7618859712384</v>
       </c>
       <c r="AC3" t="n">
-        <v>629.4954366457372</v>
+        <v>811.1761901873543</v>
       </c>
       <c r="AD3" t="n">
-        <v>508617.0840409325</v>
+        <v>655410.7376773768</v>
       </c>
       <c r="AE3" t="n">
-        <v>695912.3329869155</v>
+        <v>896761.8859712384</v>
       </c>
       <c r="AF3" t="n">
         <v>5.446903765211961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.81944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>629495.4366457372</v>
+        <v>811176.1901873543</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>444.8128148203892</v>
+        <v>571.9962715272134</v>
       </c>
       <c r="AB4" t="n">
-        <v>608.6125169936721</v>
+        <v>782.6305333980584</v>
       </c>
       <c r="AC4" t="n">
-        <v>550.5273925648278</v>
+        <v>707.9373737193996</v>
       </c>
       <c r="AD4" t="n">
-        <v>444812.8148203893</v>
+        <v>571996.2715272134</v>
       </c>
       <c r="AE4" t="n">
-        <v>608612.5169936721</v>
+        <v>782630.5333980585</v>
       </c>
       <c r="AF4" t="n">
         <v>6.002890157956478e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.14583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>550527.3925648278</v>
+        <v>707937.3737193996</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>443.216762385264</v>
+        <v>570.400219092088</v>
       </c>
       <c r="AB5" t="n">
-        <v>606.4287276390697</v>
+        <v>780.4467440434563</v>
       </c>
       <c r="AC5" t="n">
-        <v>548.5520210012612</v>
+        <v>705.9620021558329</v>
       </c>
       <c r="AD5" t="n">
-        <v>443216.762385264</v>
+        <v>570400.2190920881</v>
       </c>
       <c r="AE5" t="n">
-        <v>606428.7276390698</v>
+        <v>780446.7440434563</v>
       </c>
       <c r="AF5" t="n">
         <v>6.034350851399583e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.00694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>548552.0210012612</v>
+        <v>705962.0021558329</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>642.470034611224</v>
+        <v>816.6184340866849</v>
       </c>
       <c r="AB2" t="n">
-        <v>879.0558451326012</v>
+        <v>1117.33336818008</v>
       </c>
       <c r="AC2" t="n">
-        <v>795.1599890357724</v>
+        <v>1010.696639708204</v>
       </c>
       <c r="AD2" t="n">
-        <v>642470.0346112241</v>
+        <v>816618.434086685</v>
       </c>
       <c r="AE2" t="n">
-        <v>879055.8451326012</v>
+        <v>1117333.368180081</v>
       </c>
       <c r="AF2" t="n">
         <v>4.896190685710485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.08101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>795159.9890357724</v>
+        <v>1010696.639708204</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>431.707921087774</v>
+        <v>567.2014437705069</v>
       </c>
       <c r="AB3" t="n">
-        <v>590.6818232416001</v>
+        <v>776.0700385284613</v>
       </c>
       <c r="AC3" t="n">
-        <v>534.3079790585667</v>
+        <v>702.0030032724443</v>
       </c>
       <c r="AD3" t="n">
-        <v>431707.921087774</v>
+        <v>567201.4437705069</v>
       </c>
       <c r="AE3" t="n">
-        <v>590681.8232416001</v>
+        <v>776070.0385284612</v>
       </c>
       <c r="AF3" t="n">
         <v>6.446596664102777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.64351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>534307.9790585667</v>
+        <v>702003.0032724442</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.7586143605703</v>
+        <v>552.5384335042714</v>
       </c>
       <c r="AB4" t="n">
-        <v>583.9099634294375</v>
+        <v>756.00746099584</v>
       </c>
       <c r="AC4" t="n">
-        <v>528.1824160425119</v>
+        <v>683.855169981532</v>
       </c>
       <c r="AD4" t="n">
-        <v>426758.6143605703</v>
+        <v>552538.4335042714</v>
       </c>
       <c r="AE4" t="n">
-        <v>583909.9634294375</v>
+        <v>756007.46099584</v>
       </c>
       <c r="AF4" t="n">
         <v>6.540223439140153e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.26157407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>528182.4160425119</v>
+        <v>683855.1699815319</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.8593200898991</v>
+        <v>553.1573807670161</v>
       </c>
       <c r="AB2" t="n">
-        <v>564.8923358147189</v>
+        <v>756.8543319467533</v>
       </c>
       <c r="AC2" t="n">
-        <v>510.9798041159341</v>
+        <v>684.621216757481</v>
       </c>
       <c r="AD2" t="n">
-        <v>412859.3200898991</v>
+        <v>553157.3807670161</v>
       </c>
       <c r="AE2" t="n">
-        <v>564892.3358147189</v>
+        <v>756854.3319467533</v>
       </c>
       <c r="AF2" t="n">
         <v>8.287684298070035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.92361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>510979.8041159341</v>
+        <v>684621.216757481</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.2963235809999</v>
+        <v>578.5007100894024</v>
       </c>
       <c r="AB2" t="n">
-        <v>596.9598779588631</v>
+        <v>791.5301931944226</v>
       </c>
       <c r="AC2" t="n">
-        <v>539.9868650449193</v>
+        <v>715.9876624755497</v>
       </c>
       <c r="AD2" t="n">
-        <v>436296.3235809999</v>
+        <v>578500.7100894024</v>
       </c>
       <c r="AE2" t="n">
-        <v>596959.8779588632</v>
+        <v>791530.1931944226</v>
       </c>
       <c r="AF2" t="n">
         <v>7.280972995969775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.50694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>539986.8650449193</v>
+        <v>715987.6624755496</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>413.9099987934911</v>
+        <v>546.5644953657103</v>
       </c>
       <c r="AB3" t="n">
-        <v>566.3299207696463</v>
+        <v>747.8336552831105</v>
       </c>
       <c r="AC3" t="n">
-        <v>512.2801879804265</v>
+        <v>676.4614608140168</v>
       </c>
       <c r="AD3" t="n">
-        <v>413909.998793491</v>
+        <v>546564.4953657102</v>
       </c>
       <c r="AE3" t="n">
-        <v>566329.9207696463</v>
+        <v>747833.6552831104</v>
       </c>
       <c r="AF3" t="n">
         <v>7.569191628458774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.41898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>512280.1879804265</v>
+        <v>676461.4608140169</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.4555637334207</v>
+        <v>575.1910572121549</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.1777573605851</v>
+        <v>787.0017801161923</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.1839503423366</v>
+        <v>711.891434785838</v>
       </c>
       <c r="AD2" t="n">
-        <v>436455.5637334207</v>
+        <v>575191.0572121548</v>
       </c>
       <c r="AE2" t="n">
-        <v>597177.7573605852</v>
+        <v>787001.7801161923</v>
       </c>
       <c r="AF2" t="n">
         <v>8.851946276463734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.01851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>540183.9503423367</v>
+        <v>711891.434785838</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>680.7149672617588</v>
+        <v>865.0489618942014</v>
       </c>
       <c r="AB2" t="n">
-        <v>931.3842492324114</v>
+        <v>1183.598152930417</v>
       </c>
       <c r="AC2" t="n">
-        <v>842.4942436916731</v>
+        <v>1070.637206405179</v>
       </c>
       <c r="AD2" t="n">
-        <v>680714.9672617589</v>
+        <v>865048.9618942013</v>
       </c>
       <c r="AE2" t="n">
-        <v>931384.2492324114</v>
+        <v>1183598.152930417</v>
       </c>
       <c r="AF2" t="n">
         <v>4.603868833397242e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.40046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>842494.243691673</v>
+        <v>1070637.206405179</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>454.6499980831469</v>
+        <v>590.4735146402364</v>
       </c>
       <c r="AB3" t="n">
-        <v>622.0721851196735</v>
+        <v>807.9119125837318</v>
       </c>
       <c r="AC3" t="n">
-        <v>562.7024888556465</v>
+        <v>730.8059335582307</v>
       </c>
       <c r="AD3" t="n">
-        <v>454649.9980831469</v>
+        <v>590473.5146402364</v>
       </c>
       <c r="AE3" t="n">
-        <v>622072.1851196735</v>
+        <v>807911.9125837318</v>
       </c>
       <c r="AF3" t="n">
         <v>6.180530291658109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.11805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>562702.4888556465</v>
+        <v>730805.9335582306</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>431.1712329024571</v>
+        <v>557.3199861795007</v>
       </c>
       <c r="AB4" t="n">
-        <v>589.9475027894377</v>
+        <v>762.5497923133047</v>
       </c>
       <c r="AC4" t="n">
-        <v>533.6437411197336</v>
+        <v>689.7731103802776</v>
       </c>
       <c r="AD4" t="n">
-        <v>431171.2329024571</v>
+        <v>557319.9861795007</v>
       </c>
       <c r="AE4" t="n">
-        <v>589947.5027894378</v>
+        <v>762549.7923133047</v>
       </c>
       <c r="AF4" t="n">
         <v>6.391495095100673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.21527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>533643.7411197335</v>
+        <v>689773.1103802775</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.0167993031028</v>
+        <v>602.2044460575065</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.2598616789675</v>
+        <v>823.9626904810092</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.0175169854213</v>
+        <v>745.3248477404002</v>
       </c>
       <c r="AD2" t="n">
-        <v>446016.7993031028</v>
+        <v>602204.4460575065</v>
       </c>
       <c r="AE2" t="n">
-        <v>610259.8616789675</v>
+        <v>823962.6904810092</v>
       </c>
       <c r="AF2" t="n">
         <v>9.112830146251272e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.96296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>552017.5169854213</v>
+        <v>745324.8477404001</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>529.6892920951226</v>
+        <v>683.1043926326114</v>
       </c>
       <c r="AB2" t="n">
-        <v>724.7442576868672</v>
+        <v>934.6535664388197</v>
       </c>
       <c r="AC2" t="n">
-        <v>655.5756829181861</v>
+        <v>845.4515418524172</v>
       </c>
       <c r="AD2" t="n">
-        <v>529689.2920951226</v>
+        <v>683104.3926326114</v>
       </c>
       <c r="AE2" t="n">
-        <v>724744.2576868671</v>
+        <v>934653.5664388196</v>
       </c>
       <c r="AF2" t="n">
         <v>5.907989210350569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.60879629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>655575.6829181861</v>
+        <v>845451.5418524172</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.3051316858353</v>
+        <v>549.5091792373572</v>
       </c>
       <c r="AB3" t="n">
-        <v>568.238803141871</v>
+        <v>751.8627016665816</v>
       </c>
       <c r="AC3" t="n">
-        <v>514.0068892981793</v>
+        <v>680.1059806654517</v>
       </c>
       <c r="AD3" t="n">
-        <v>415305.1316858353</v>
+        <v>549509.1792373572</v>
       </c>
       <c r="AE3" t="n">
-        <v>568238.803141871</v>
+        <v>751862.7016665817</v>
       </c>
       <c r="AF3" t="n">
         <v>6.994137644565437e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.70138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>514006.8892981793</v>
+        <v>680105.9806654517</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>598.5824985543261</v>
+        <v>772.2337955185036</v>
       </c>
       <c r="AB2" t="n">
-        <v>819.0069821181113</v>
+        <v>1056.604347579038</v>
       </c>
       <c r="AC2" t="n">
-        <v>740.842105228277</v>
+        <v>955.7635115996094</v>
       </c>
       <c r="AD2" t="n">
-        <v>598582.4985543261</v>
+        <v>772233.7955185036</v>
       </c>
       <c r="AE2" t="n">
-        <v>819006.9821181113</v>
+        <v>1056604.347579038</v>
       </c>
       <c r="AF2" t="n">
         <v>5.186907322003044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.98148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>740842.1052282769</v>
+        <v>955763.5115996094</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.9188580321797</v>
+        <v>557.898473454933</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.6562394228396</v>
+        <v>763.3413041246087</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.4301000814559</v>
+        <v>690.4890814152043</v>
       </c>
       <c r="AD3" t="n">
-        <v>422918.8580321798</v>
+        <v>557898.4734549329</v>
       </c>
       <c r="AE3" t="n">
-        <v>578656.2394228396</v>
+        <v>763341.3041246086</v>
       </c>
       <c r="AF3" t="n">
         <v>6.673732425051157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.41203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>523430.1000814559</v>
+        <v>690489.0814152043</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>422.8943673087601</v>
+        <v>548.2912231356449</v>
       </c>
       <c r="AB4" t="n">
-        <v>578.6227301346024</v>
+        <v>750.196240395788</v>
       </c>
       <c r="AC4" t="n">
-        <v>523.3997888726575</v>
+        <v>678.5985641194495</v>
       </c>
       <c r="AD4" t="n">
-        <v>422894.3673087601</v>
+        <v>548291.2231356449</v>
       </c>
       <c r="AE4" t="n">
-        <v>578622.7301346024</v>
+        <v>750196.240395788</v>
       </c>
       <c r="AF4" t="n">
         <v>6.685154312045792e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.36574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>523399.7888726575</v>
+        <v>678598.5641194495</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>759.3918599437308</v>
+        <v>964.3088981995834</v>
       </c>
       <c r="AB2" t="n">
-        <v>1039.033444779421</v>
+        <v>1319.409976822773</v>
       </c>
       <c r="AC2" t="n">
-        <v>939.8695511022711</v>
+        <v>1193.48734043834</v>
       </c>
       <c r="AD2" t="n">
-        <v>759391.8599437308</v>
+        <v>964308.8981995834</v>
       </c>
       <c r="AE2" t="n">
-        <v>1039033.444779421</v>
+        <v>1319409.976822773</v>
       </c>
       <c r="AF2" t="n">
         <v>4.109078328310091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.99305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>939869.5511022711</v>
+        <v>1193487.34043834</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>492.9424828101722</v>
+        <v>629.5548526772645</v>
       </c>
       <c r="AB3" t="n">
-        <v>674.4656520683876</v>
+        <v>861.3847234329435</v>
       </c>
       <c r="AC3" t="n">
-        <v>610.0955968534681</v>
+        <v>779.175374389555</v>
       </c>
       <c r="AD3" t="n">
-        <v>492942.4828101722</v>
+        <v>629554.8526772645</v>
       </c>
       <c r="AE3" t="n">
-        <v>674465.6520683876</v>
+        <v>861384.7234329435</v>
       </c>
       <c r="AF3" t="n">
         <v>5.682049183950375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.19444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>610095.5968534681</v>
+        <v>779175.3743895551</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>438.7859434893959</v>
+        <v>565.635478379717</v>
       </c>
       <c r="AB4" t="n">
-        <v>600.3662857518093</v>
+        <v>773.9274155952653</v>
       </c>
       <c r="AC4" t="n">
-        <v>543.0681700590302</v>
+        <v>700.0648692648024</v>
       </c>
       <c r="AD4" t="n">
-        <v>438785.943489396</v>
+        <v>565635.478379717</v>
       </c>
       <c r="AE4" t="n">
-        <v>600366.2857518092</v>
+        <v>773927.4155952653</v>
       </c>
       <c r="AF4" t="n">
         <v>6.144166479860185e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.07638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>543068.1700590302</v>
+        <v>700064.8692648024</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>439.2766745855886</v>
+        <v>566.1262094759097</v>
       </c>
       <c r="AB5" t="n">
-        <v>601.0377256871482</v>
+        <v>774.5988555306043</v>
       </c>
       <c r="AC5" t="n">
-        <v>543.6755287093121</v>
+        <v>700.6722279150845</v>
       </c>
       <c r="AD5" t="n">
-        <v>439276.6745855886</v>
+        <v>566126.2094759097</v>
       </c>
       <c r="AE5" t="n">
-        <v>601037.7256871482</v>
+        <v>774598.8555306043</v>
       </c>
       <c r="AF5" t="n">
         <v>6.145550893568721e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.07638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>543675.5287093121</v>
+        <v>700672.2279150845</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>465.8869883012213</v>
+        <v>608.5816329128271</v>
       </c>
       <c r="AB2" t="n">
-        <v>637.4471308770636</v>
+        <v>832.6882388780866</v>
       </c>
       <c r="AC2" t="n">
-        <v>576.6100713688231</v>
+        <v>753.2176420448445</v>
       </c>
       <c r="AD2" t="n">
-        <v>465886.9883012213</v>
+        <v>608581.6329128271</v>
       </c>
       <c r="AE2" t="n">
-        <v>637447.1308770636</v>
+        <v>832688.2388780867</v>
       </c>
       <c r="AF2" t="n">
         <v>6.781140983130192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.45601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>576610.0713688232</v>
+        <v>753217.6420448446</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.1763662106042</v>
+        <v>550.3512688330038</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.7991087717007</v>
+        <v>753.0148858017164</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.3228429521096</v>
+        <v>681.1482019638297</v>
       </c>
       <c r="AD3" t="n">
-        <v>417176.3662106042</v>
+        <v>550351.2688330038</v>
       </c>
       <c r="AE3" t="n">
-        <v>570799.1087717008</v>
+        <v>753014.8858017165</v>
       </c>
       <c r="AF3" t="n">
         <v>7.375187641752627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>516322.8429521095</v>
+        <v>681148.2019638297</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.8258729889807</v>
+        <v>547.3716203423317</v>
       </c>
       <c r="AB2" t="n">
-        <v>568.9513043663194</v>
+        <v>748.9379992839647</v>
       </c>
       <c r="AC2" t="n">
-        <v>514.6513904057682</v>
+        <v>677.4604077733862</v>
       </c>
       <c r="AD2" t="n">
-        <v>415825.8729889807</v>
+        <v>547371.6203423317</v>
       </c>
       <c r="AE2" t="n">
-        <v>568951.3043663194</v>
+        <v>748937.9992839647</v>
       </c>
       <c r="AF2" t="n">
         <v>8.029915471913148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.28703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>514651.3904057682</v>
+        <v>677460.4077733862</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>416.8974069064526</v>
+        <v>548.4431542598036</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.4174243449446</v>
+        <v>750.4041192625898</v>
       </c>
       <c r="AC3" t="n">
-        <v>515.9775859513456</v>
+        <v>678.7866033189638</v>
       </c>
       <c r="AD3" t="n">
-        <v>416897.4069064526</v>
+        <v>548443.1542598036</v>
       </c>
       <c r="AE3" t="n">
-        <v>570417.4243449447</v>
+        <v>750404.1192625898</v>
       </c>
       <c r="AF3" t="n">
         <v>8.02638307838232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.29861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>515977.5859513457</v>
+        <v>678786.6033189638</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.6311942268663</v>
+        <v>568.4583420717416</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.1579127629194</v>
+        <v>777.7897822346503</v>
       </c>
       <c r="AC2" t="n">
-        <v>519.3610874045172</v>
+        <v>703.55861705299</v>
       </c>
       <c r="AD2" t="n">
-        <v>419631.1942268664</v>
+        <v>568458.3420717416</v>
       </c>
       <c r="AE2" t="n">
-        <v>574157.9127629194</v>
+        <v>777789.7822346502</v>
       </c>
       <c r="AF2" t="n">
         <v>8.56349317067857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>519361.0874045172</v>
+        <v>703558.61705299</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>486.3598471826759</v>
+        <v>659.460790129</v>
       </c>
       <c r="AB2" t="n">
-        <v>665.4589995974593</v>
+        <v>902.3033464112528</v>
       </c>
       <c r="AC2" t="n">
-        <v>601.9485266534489</v>
+        <v>816.1887814204626</v>
       </c>
       <c r="AD2" t="n">
-        <v>486359.847182676</v>
+        <v>659460.790129</v>
       </c>
       <c r="AE2" t="n">
-        <v>665458.9995974593</v>
+        <v>902303.3464112529</v>
       </c>
       <c r="AF2" t="n">
         <v>9.277730007907247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.36574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>601948.5266534489</v>
+        <v>816188.7814204626</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>562.9221547114374</v>
+        <v>726.4353875603489</v>
       </c>
       <c r="AB2" t="n">
-        <v>770.2149264489333</v>
+        <v>993.9409453275301</v>
       </c>
       <c r="AC2" t="n">
-        <v>696.706694872085</v>
+        <v>899.0806165103481</v>
       </c>
       <c r="AD2" t="n">
-        <v>562922.1547114374</v>
+        <v>726435.3875603488</v>
       </c>
       <c r="AE2" t="n">
-        <v>770214.9264489333</v>
+        <v>993940.9453275301</v>
       </c>
       <c r="AF2" t="n">
         <v>5.536850222272823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.73148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>696706.694872085</v>
+        <v>899080.6165103482</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>419.5579654552797</v>
+        <v>554.2098927275397</v>
       </c>
       <c r="AB3" t="n">
-        <v>574.0577179270091</v>
+        <v>758.294425244692</v>
       </c>
       <c r="AC3" t="n">
-        <v>519.2704550231219</v>
+        <v>685.9238695722481</v>
       </c>
       <c r="AD3" t="n">
-        <v>419557.9654552797</v>
+        <v>554209.8927275396</v>
       </c>
       <c r="AE3" t="n">
-        <v>574057.7179270091</v>
+        <v>758294.425244692</v>
       </c>
       <c r="AF3" t="n">
         <v>6.819318711778025e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.57407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>519270.455023122</v>
+        <v>685923.8695722481</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>420.0613822162899</v>
+        <v>554.7133094885498</v>
       </c>
       <c r="AB4" t="n">
-        <v>574.7465149486032</v>
+        <v>758.9832222662862</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.8935142237079</v>
+        <v>686.5469287728341</v>
       </c>
       <c r="AD4" t="n">
-        <v>420061.3822162899</v>
+        <v>554713.3094885498</v>
       </c>
       <c r="AE4" t="n">
-        <v>574746.5149486032</v>
+        <v>758983.2222662863</v>
       </c>
       <c r="AF4" t="n">
         <v>6.822293913402029e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>519893.5142237079</v>
+        <v>686546.9287728341</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>719.055086404047</v>
+        <v>913.7133314256838</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.8428916895701</v>
+        <v>1250.182890243854</v>
       </c>
       <c r="AC2" t="n">
-        <v>889.9463069388878</v>
+        <v>1130.867189841686</v>
       </c>
       <c r="AD2" t="n">
-        <v>719055.086404047</v>
+        <v>913713.3314256838</v>
       </c>
       <c r="AE2" t="n">
-        <v>983842.8916895702</v>
+        <v>1250182.890243853</v>
       </c>
       <c r="AF2" t="n">
         <v>4.347538535654053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.67361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>889946.3069388878</v>
+        <v>1130867.189841686</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.3292615370039</v>
+        <v>605.6378646384429</v>
       </c>
       <c r="AB3" t="n">
-        <v>642.1570009806387</v>
+        <v>828.6604452551838</v>
       </c>
       <c r="AC3" t="n">
-        <v>580.8704380800572</v>
+        <v>749.5742553922677</v>
       </c>
       <c r="AD3" t="n">
-        <v>469329.2615370039</v>
+        <v>605637.8646384429</v>
       </c>
       <c r="AE3" t="n">
-        <v>642157.0009806387</v>
+        <v>828660.4452551838</v>
       </c>
       <c r="AF3" t="n">
         <v>5.913874914931874e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.69675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>580870.4380800572</v>
+        <v>749574.2553922677</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>433.5863875232747</v>
+        <v>560.0913420240493</v>
       </c>
       <c r="AB4" t="n">
-        <v>593.2520238907423</v>
+        <v>766.3416836434071</v>
       </c>
       <c r="AC4" t="n">
-        <v>536.6328833650541</v>
+        <v>693.2031089237878</v>
       </c>
       <c r="AD4" t="n">
-        <v>433586.3875232746</v>
+        <v>560091.3420240493</v>
       </c>
       <c r="AE4" t="n">
-        <v>593252.0238907423</v>
+        <v>766341.6836434071</v>
       </c>
       <c r="AF4" t="n">
         <v>6.286003612086406e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.05324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>536632.8833650541</v>
+        <v>693203.1089237878</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>434.4001440493795</v>
+        <v>560.9050985501541</v>
       </c>
       <c r="AB5" t="n">
-        <v>594.3654414701632</v>
+        <v>767.4551012228278</v>
       </c>
       <c r="AC5" t="n">
-        <v>537.6400379333865</v>
+        <v>694.2102634921201</v>
       </c>
       <c r="AD5" t="n">
-        <v>434400.1440493795</v>
+        <v>560905.0985501541</v>
       </c>
       <c r="AE5" t="n">
-        <v>594365.4414701632</v>
+        <v>767455.1012228278</v>
       </c>
       <c r="AF5" t="n">
         <v>6.28529614308041e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.05324074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>537640.0379333864</v>
+        <v>694210.2634921201</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>563.8659535303527</v>
+        <v>771.4800179207456</v>
       </c>
       <c r="AB2" t="n">
-        <v>771.5062736304384</v>
+        <v>1055.572995815465</v>
       </c>
       <c r="AC2" t="n">
-        <v>697.8747976910045</v>
+        <v>954.8305906008404</v>
       </c>
       <c r="AD2" t="n">
-        <v>563865.9535303527</v>
+        <v>771480.0179207455</v>
       </c>
       <c r="AE2" t="n">
-        <v>771506.2736304384</v>
+        <v>1055572.995815465</v>
       </c>
       <c r="AF2" t="n">
         <v>9.047140546319476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.91203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>697874.7976910045</v>
+        <v>954830.5906008404</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.651367464348</v>
+        <v>553.787557703847</v>
       </c>
       <c r="AB2" t="n">
-        <v>576.922002910195</v>
+        <v>757.7165678331698</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.8613766675619</v>
+        <v>685.4011620610536</v>
       </c>
       <c r="AD2" t="n">
-        <v>421651.367464348</v>
+        <v>553787.5577038471</v>
       </c>
       <c r="AE2" t="n">
-        <v>576922.002910195</v>
+        <v>757716.5678331698</v>
       </c>
       <c r="AF2" t="n">
         <v>7.732752457152671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.00925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>521861.3766675619</v>
+        <v>685401.1620610536</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.1884255230749</v>
+        <v>551.7667125932313</v>
       </c>
       <c r="AB3" t="n">
-        <v>561.2379000368378</v>
+        <v>754.9515583994312</v>
       </c>
       <c r="AC3" t="n">
-        <v>507.6741425596612</v>
+        <v>682.9000412469557</v>
       </c>
       <c r="AD3" t="n">
-        <v>410188.4255230749</v>
+        <v>551766.7125932314</v>
       </c>
       <c r="AE3" t="n">
-        <v>561237.9000368378</v>
+        <v>754951.5583994312</v>
       </c>
       <c r="AF3" t="n">
         <v>7.800683754603033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.76620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>507674.1425596612</v>
+        <v>682900.0412469556</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>497.2999270941052</v>
+        <v>650.1449288612794</v>
       </c>
       <c r="AB2" t="n">
-        <v>680.4276995745391</v>
+        <v>889.5569740379646</v>
       </c>
       <c r="AC2" t="n">
-        <v>615.4886349134185</v>
+        <v>804.6589049368348</v>
       </c>
       <c r="AD2" t="n">
-        <v>497299.9270941052</v>
+        <v>650144.9288612794</v>
       </c>
       <c r="AE2" t="n">
-        <v>680427.6995745391</v>
+        <v>889556.9740379646</v>
       </c>
       <c r="AF2" t="n">
         <v>6.321643188274026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.50925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>615488.6349134186</v>
+        <v>804658.9049368348</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.2545507073187</v>
+        <v>544.9896565762485</v>
       </c>
       <c r="AB3" t="n">
-        <v>562.6966195480439</v>
+        <v>745.6788913743851</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.9936439280434</v>
+        <v>674.5123445485101</v>
       </c>
       <c r="AD3" t="n">
-        <v>411254.5507073188</v>
+        <v>544989.6565762486</v>
       </c>
       <c r="AE3" t="n">
-        <v>562696.6195480439</v>
+        <v>745678.8913743851</v>
       </c>
       <c r="AF3" t="n">
         <v>7.176815522465509e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>508993.6439280434</v>
+        <v>674512.3445485102</v>
       </c>
     </row>
   </sheetData>
